--- a/2022/Samsung/MARCH/22.03.2022/SAMSUNG Bank Statement March-2022.xlsx
+++ b/2022/Samsung/MARCH/22.03.2022/SAMSUNG Bank Statement March-2022.xlsx
@@ -860,9 +860,6 @@
     <t>Multi Tecnology</t>
   </si>
   <si>
-    <t>G=Multi Tecnology</t>
-  </si>
-  <si>
     <t>22.03.2022</t>
   </si>
   <si>
@@ -906,6 +903,9 @@
   </si>
   <si>
     <t>Date:22.03.2022</t>
+  </si>
+  <si>
+    <t>G=Multi Technology</t>
   </si>
 </sst>
 </file>
@@ -3192,6 +3192,7 @@
     <xf numFmtId="1" fontId="39" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3206,6 +3207,18 @@
     </xf>
     <xf numFmtId="0" fontId="40" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3234,22 +3247,10 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3342,7 +3343,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3800,33 +3800,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="337"/>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
+      <c r="A1" s="338"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="338"/>
-      <c r="B2" s="335" t="s">
+      <c r="A2" s="339"/>
+      <c r="B2" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="338"/>
-      <c r="B3" s="336" t="s">
+      <c r="A3" s="339"/>
+      <c r="B3" s="337" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="338"/>
+      <c r="A4" s="339"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3844,7 +3844,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3862,7 +3862,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3874,7 +3874,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="338"/>
+      <c r="A8" s="339"/>
       <c r="B8" s="26" t="s">
         <v>45</v>
       </c>
@@ -3912,7 +3912,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="26" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="26" t="s">
         <v>48</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
@@ -3969,7 +3969,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="338"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="26" t="s">
         <v>50</v>
       </c>
@@ -3988,7 +3988,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="26" t="s">
         <v>52</v>
       </c>
@@ -4026,7 +4026,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="338"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="338"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4058,7 +4058,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="338"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4071,7 +4071,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4084,7 +4084,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4097,7 +4097,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4110,7 +4110,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="338"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4123,7 +4123,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="338"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4136,7 +4136,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="338"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4149,7 +4149,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="338"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4162,7 +4162,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="338"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4175,7 +4175,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="338"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4188,7 +4188,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="338"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4201,7 +4201,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="338"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4214,7 +4214,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="338"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4227,7 +4227,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="338"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4240,7 +4240,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="338"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4253,7 +4253,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="338"/>
+      <c r="A32" s="339"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4266,7 +4266,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="338"/>
+      <c r="A33" s="339"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4279,7 +4279,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="338"/>
+      <c r="A34" s="339"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4292,7 +4292,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="338"/>
+      <c r="A35" s="339"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4305,7 +4305,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="338"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4318,7 +4318,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="338"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4331,7 +4331,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="338"/>
+      <c r="A38" s="339"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4344,7 +4344,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="338"/>
+      <c r="A39" s="339"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4357,7 +4357,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="338"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4370,7 +4370,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="338"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4383,7 +4383,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="338"/>
+      <c r="A42" s="339"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4396,7 +4396,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="338"/>
+      <c r="A43" s="339"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4409,7 +4409,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="338"/>
+      <c r="A44" s="339"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4422,7 +4422,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="338"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4435,7 +4435,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="338"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4448,7 +4448,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="338"/>
+      <c r="A47" s="339"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4461,7 +4461,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="338"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4474,7 +4474,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="338"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4487,7 +4487,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="338"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4500,7 +4500,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="338"/>
+      <c r="A51" s="339"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4513,7 +4513,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="338"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4526,7 +4526,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="338"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4539,7 +4539,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="338"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4552,7 +4552,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="338"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4564,7 +4564,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="338"/>
+      <c r="A56" s="339"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4576,7 +4576,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="338"/>
+      <c r="A57" s="339"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4588,7 +4588,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="338"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4600,7 +4600,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="338"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4612,7 +4612,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="338"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4624,7 +4624,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="338"/>
+      <c r="A61" s="339"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4636,7 +4636,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="338"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4648,7 +4648,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="338"/>
+      <c r="A63" s="339"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4660,7 +4660,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="338"/>
+      <c r="A64" s="339"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4672,7 +4672,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="338"/>
+      <c r="A65" s="339"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4684,7 +4684,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="338"/>
+      <c r="A66" s="339"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4696,7 +4696,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="338"/>
+      <c r="A67" s="339"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4708,7 +4708,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="338"/>
+      <c r="A68" s="339"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4720,7 +4720,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="338"/>
+      <c r="A69" s="339"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4732,7 +4732,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="338"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4744,7 +4744,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="338"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4756,7 +4756,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="338"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4768,7 +4768,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="338"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4780,7 +4780,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="338"/>
+      <c r="A74" s="339"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4792,7 +4792,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="338"/>
+      <c r="A75" s="339"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4804,7 +4804,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="338"/>
+      <c r="A76" s="339"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4816,7 +4816,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="338"/>
+      <c r="A77" s="339"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4828,7 +4828,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="338"/>
+      <c r="A78" s="339"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4840,7 +4840,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="338"/>
+      <c r="A79" s="339"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4852,7 +4852,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="338"/>
+      <c r="A80" s="339"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4864,7 +4864,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="338"/>
+      <c r="A81" s="339"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4876,7 +4876,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="338"/>
+      <c r="A82" s="339"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -4888,7 +4888,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="338"/>
+      <c r="A83" s="339"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -4960,10 +4960,10 @@
       <c r="E1" s="262" t="s">
         <v>195</v>
       </c>
-      <c r="G1" s="339" t="s">
+      <c r="G1" s="340" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="339">
+      <c r="H1" s="340">
         <f>C99</f>
         <v>37000</v>
       </c>
@@ -4980,8 +4980,8 @@
       </c>
       <c r="D2" s="261"/>
       <c r="E2" s="324"/>
-      <c r="G2" s="339"/>
-      <c r="H2" s="339"/>
+      <c r="G2" s="340"/>
+      <c r="H2" s="340"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="309" t="s">
@@ -5836,33 +5836,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="337"/>
-      <c r="B1" s="337"/>
-      <c r="C1" s="337"/>
-      <c r="D1" s="337"/>
-      <c r="E1" s="337"/>
-      <c r="F1" s="337"/>
+      <c r="A1" s="338"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="338"/>
-      <c r="B2" s="335" t="s">
+      <c r="A2" s="339"/>
+      <c r="B2" s="336" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="335"/>
-      <c r="D2" s="335"/>
-      <c r="E2" s="335"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="338"/>
-      <c r="B3" s="336" t="s">
+      <c r="A3" s="339"/>
+      <c r="B3" s="337" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="338"/>
+      <c r="A4" s="339"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5880,7 +5880,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="338"/>
+      <c r="A5" s="339"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5898,7 +5898,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="338"/>
+      <c r="A6" s="339"/>
       <c r="B6" s="26"/>
       <c r="C6" s="245"/>
       <c r="D6" s="245"/>
@@ -5910,7 +5910,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="338"/>
+      <c r="A7" s="339"/>
       <c r="B7" s="26" t="s">
         <v>134</v>
       </c>
@@ -5928,7 +5928,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="338"/>
+      <c r="A8" s="339"/>
       <c r="B8" s="26" t="s">
         <v>144</v>
       </c>
@@ -5948,7 +5948,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="338"/>
+      <c r="A9" s="339"/>
       <c r="B9" s="26" t="s">
         <v>150</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="338"/>
+      <c r="A10" s="339"/>
       <c r="B10" s="26"/>
       <c r="C10" s="247"/>
       <c r="D10" s="247"/>
@@ -5978,7 +5978,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="338"/>
+      <c r="A11" s="339"/>
       <c r="B11" s="26" t="s">
         <v>154</v>
       </c>
@@ -5996,7 +5996,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="338"/>
+      <c r="A12" s="339"/>
       <c r="B12" s="26" t="s">
         <v>156</v>
       </c>
@@ -6016,7 +6016,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="338"/>
+      <c r="A13" s="339"/>
       <c r="B13" s="26" t="s">
         <v>159</v>
       </c>
@@ -6036,7 +6036,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="338"/>
+      <c r="A14" s="339"/>
       <c r="B14" s="26" t="s">
         <v>164</v>
       </c>
@@ -6054,7 +6054,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="338"/>
+      <c r="A15" s="339"/>
       <c r="B15" s="26" t="s">
         <v>168</v>
       </c>
@@ -6072,7 +6072,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="338"/>
+      <c r="A16" s="339"/>
       <c r="B16" s="26" t="s">
         <v>170</v>
       </c>
@@ -6090,7 +6090,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="338"/>
+      <c r="A17" s="339"/>
       <c r="B17" s="26" t="s">
         <v>180</v>
       </c>
@@ -6108,7 +6108,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="338"/>
+      <c r="A18" s="339"/>
       <c r="B18" s="26" t="s">
         <v>181</v>
       </c>
@@ -6126,7 +6126,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="338"/>
+      <c r="A19" s="339"/>
       <c r="B19" s="26" t="s">
         <v>182</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="338"/>
+      <c r="A20" s="339"/>
       <c r="B20" s="26" t="s">
         <v>191</v>
       </c>
@@ -6162,7 +6162,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="338"/>
+      <c r="A21" s="339"/>
       <c r="B21" s="26" t="s">
         <v>192</v>
       </c>
@@ -6180,7 +6180,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="338"/>
+      <c r="A22" s="339"/>
       <c r="B22" s="26" t="s">
         <v>196</v>
       </c>
@@ -6198,7 +6198,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="338"/>
+      <c r="A23" s="339"/>
       <c r="B23" s="26" t="s">
         <v>209</v>
       </c>
@@ -6216,7 +6216,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="338"/>
+      <c r="A24" s="339"/>
       <c r="B24" s="26" t="s">
         <v>212</v>
       </c>
@@ -6234,9 +6234,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="338"/>
+      <c r="A25" s="339"/>
       <c r="B25" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C25" s="245">
         <v>170000</v>
@@ -6252,7 +6252,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="338"/>
+      <c r="A26" s="339"/>
       <c r="B26" s="26"/>
       <c r="C26" s="245"/>
       <c r="D26" s="245"/>
@@ -6264,7 +6264,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="338"/>
+      <c r="A27" s="339"/>
       <c r="B27" s="26"/>
       <c r="C27" s="245"/>
       <c r="D27" s="245"/>
@@ -6276,7 +6276,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="338"/>
+      <c r="A28" s="339"/>
       <c r="B28" s="26"/>
       <c r="C28" s="245"/>
       <c r="D28" s="245"/>
@@ -6288,7 +6288,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="338"/>
+      <c r="A29" s="339"/>
       <c r="B29" s="26"/>
       <c r="C29" s="245"/>
       <c r="D29" s="245"/>
@@ -6300,7 +6300,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="338"/>
+      <c r="A30" s="339"/>
       <c r="B30" s="26"/>
       <c r="C30" s="245"/>
       <c r="D30" s="245"/>
@@ -6312,7 +6312,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="338"/>
+      <c r="A31" s="339"/>
       <c r="B31" s="26"/>
       <c r="C31" s="245"/>
       <c r="D31" s="245"/>
@@ -6324,7 +6324,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="338"/>
+      <c r="A32" s="339"/>
       <c r="B32" s="26"/>
       <c r="C32" s="245"/>
       <c r="D32" s="245"/>
@@ -6336,7 +6336,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="338"/>
+      <c r="A33" s="339"/>
       <c r="B33" s="26"/>
       <c r="C33" s="245"/>
       <c r="D33" s="247"/>
@@ -6348,7 +6348,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="338"/>
+      <c r="A34" s="339"/>
       <c r="B34" s="26"/>
       <c r="C34" s="245"/>
       <c r="D34" s="245"/>
@@ -6360,7 +6360,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="338"/>
+      <c r="A35" s="339"/>
       <c r="B35" s="26"/>
       <c r="C35" s="245"/>
       <c r="D35" s="245"/>
@@ -6372,7 +6372,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="338"/>
+      <c r="A36" s="339"/>
       <c r="B36" s="26"/>
       <c r="C36" s="245"/>
       <c r="D36" s="245"/>
@@ -6384,7 +6384,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="338"/>
+      <c r="A37" s="339"/>
       <c r="B37" s="26"/>
       <c r="C37" s="245"/>
       <c r="D37" s="245"/>
@@ -6396,7 +6396,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="338"/>
+      <c r="A38" s="339"/>
       <c r="B38" s="26"/>
       <c r="C38" s="245"/>
       <c r="D38" s="245"/>
@@ -6408,7 +6408,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="338"/>
+      <c r="A39" s="339"/>
       <c r="B39" s="26"/>
       <c r="C39" s="245"/>
       <c r="D39" s="245"/>
@@ -6420,7 +6420,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="338"/>
+      <c r="A40" s="339"/>
       <c r="B40" s="26"/>
       <c r="C40" s="245"/>
       <c r="D40" s="245"/>
@@ -6432,7 +6432,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="338"/>
+      <c r="A41" s="339"/>
       <c r="B41" s="26"/>
       <c r="C41" s="245"/>
       <c r="D41" s="245"/>
@@ -6444,7 +6444,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="338"/>
+      <c r="A42" s="339"/>
       <c r="B42" s="26"/>
       <c r="C42" s="245"/>
       <c r="D42" s="245"/>
@@ -6456,7 +6456,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="338"/>
+      <c r="A43" s="339"/>
       <c r="B43" s="26"/>
       <c r="C43" s="245"/>
       <c r="D43" s="245"/>
@@ -6468,7 +6468,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="338"/>
+      <c r="A44" s="339"/>
       <c r="B44" s="26"/>
       <c r="C44" s="245"/>
       <c r="D44" s="245"/>
@@ -6480,7 +6480,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="338"/>
+      <c r="A45" s="339"/>
       <c r="B45" s="26"/>
       <c r="C45" s="245"/>
       <c r="D45" s="245"/>
@@ -6492,7 +6492,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="338"/>
+      <c r="A46" s="339"/>
       <c r="B46" s="26"/>
       <c r="C46" s="245"/>
       <c r="D46" s="245"/>
@@ -6504,7 +6504,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="338"/>
+      <c r="A47" s="339"/>
       <c r="B47" s="26"/>
       <c r="C47" s="245"/>
       <c r="D47" s="245"/>
@@ -6516,7 +6516,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="338"/>
+      <c r="A48" s="339"/>
       <c r="B48" s="26"/>
       <c r="C48" s="245"/>
       <c r="D48" s="245"/>
@@ -6528,7 +6528,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="338"/>
+      <c r="A49" s="339"/>
       <c r="B49" s="26"/>
       <c r="C49" s="245"/>
       <c r="D49" s="245"/>
@@ -6540,7 +6540,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="338"/>
+      <c r="A50" s="339"/>
       <c r="B50" s="26"/>
       <c r="C50" s="245"/>
       <c r="D50" s="245"/>
@@ -6552,7 +6552,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="338"/>
+      <c r="A51" s="339"/>
       <c r="B51" s="26"/>
       <c r="C51" s="245"/>
       <c r="D51" s="245"/>
@@ -6564,7 +6564,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="338"/>
+      <c r="A52" s="339"/>
       <c r="B52" s="26"/>
       <c r="C52" s="245"/>
       <c r="D52" s="245"/>
@@ -6576,7 +6576,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="338"/>
+      <c r="A53" s="339"/>
       <c r="B53" s="26"/>
       <c r="C53" s="245"/>
       <c r="D53" s="245"/>
@@ -6588,7 +6588,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="338"/>
+      <c r="A54" s="339"/>
       <c r="B54" s="26"/>
       <c r="C54" s="245"/>
       <c r="D54" s="245"/>
@@ -6600,7 +6600,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="338"/>
+      <c r="A55" s="339"/>
       <c r="B55" s="26"/>
       <c r="C55" s="245"/>
       <c r="D55" s="245"/>
@@ -6611,7 +6611,7 @@
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="338"/>
+      <c r="A56" s="339"/>
       <c r="B56" s="26"/>
       <c r="C56" s="245"/>
       <c r="D56" s="245"/>
@@ -6622,7 +6622,7 @@
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="338"/>
+      <c r="A57" s="339"/>
       <c r="B57" s="26"/>
       <c r="C57" s="245"/>
       <c r="D57" s="245"/>
@@ -6633,7 +6633,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="338"/>
+      <c r="A58" s="339"/>
       <c r="B58" s="26"/>
       <c r="C58" s="245"/>
       <c r="D58" s="245"/>
@@ -6644,7 +6644,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="338"/>
+      <c r="A59" s="339"/>
       <c r="B59" s="26"/>
       <c r="C59" s="245"/>
       <c r="D59" s="245"/>
@@ -6655,7 +6655,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="338"/>
+      <c r="A60" s="339"/>
       <c r="B60" s="26"/>
       <c r="C60" s="245"/>
       <c r="D60" s="245"/>
@@ -6666,7 +6666,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="338"/>
+      <c r="A61" s="339"/>
       <c r="B61" s="26"/>
       <c r="C61" s="245"/>
       <c r="D61" s="245"/>
@@ -6677,7 +6677,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="338"/>
+      <c r="A62" s="339"/>
       <c r="B62" s="26"/>
       <c r="C62" s="245"/>
       <c r="D62" s="245"/>
@@ -6688,7 +6688,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="338"/>
+      <c r="A63" s="339"/>
       <c r="B63" s="26"/>
       <c r="C63" s="245"/>
       <c r="D63" s="245"/>
@@ -6699,7 +6699,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="338"/>
+      <c r="A64" s="339"/>
       <c r="B64" s="26"/>
       <c r="C64" s="245"/>
       <c r="D64" s="245"/>
@@ -6710,7 +6710,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="338"/>
+      <c r="A65" s="339"/>
       <c r="B65" s="26"/>
       <c r="C65" s="245"/>
       <c r="D65" s="245"/>
@@ -6721,7 +6721,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="338"/>
+      <c r="A66" s="339"/>
       <c r="B66" s="26"/>
       <c r="C66" s="245"/>
       <c r="D66" s="245"/>
@@ -6732,7 +6732,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="338"/>
+      <c r="A67" s="339"/>
       <c r="B67" s="26"/>
       <c r="C67" s="245"/>
       <c r="D67" s="245"/>
@@ -6743,7 +6743,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="338"/>
+      <c r="A68" s="339"/>
       <c r="B68" s="26"/>
       <c r="C68" s="245"/>
       <c r="D68" s="245"/>
@@ -6754,7 +6754,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="338"/>
+      <c r="A69" s="339"/>
       <c r="B69" s="26"/>
       <c r="C69" s="245"/>
       <c r="D69" s="245"/>
@@ -6765,7 +6765,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="338"/>
+      <c r="A70" s="339"/>
       <c r="B70" s="26"/>
       <c r="C70" s="245"/>
       <c r="D70" s="245"/>
@@ -6776,7 +6776,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="338"/>
+      <c r="A71" s="339"/>
       <c r="B71" s="26"/>
       <c r="C71" s="245"/>
       <c r="D71" s="245"/>
@@ -6787,7 +6787,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="338"/>
+      <c r="A72" s="339"/>
       <c r="B72" s="26"/>
       <c r="C72" s="245"/>
       <c r="D72" s="245"/>
@@ -6798,7 +6798,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="338"/>
+      <c r="A73" s="339"/>
       <c r="B73" s="26"/>
       <c r="C73" s="245"/>
       <c r="D73" s="245"/>
@@ -6809,7 +6809,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="338"/>
+      <c r="A74" s="339"/>
       <c r="B74" s="26"/>
       <c r="C74" s="245"/>
       <c r="D74" s="245"/>
@@ -6820,7 +6820,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="338"/>
+      <c r="A75" s="339"/>
       <c r="B75" s="26"/>
       <c r="C75" s="245"/>
       <c r="D75" s="245"/>
@@ -6831,7 +6831,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="338"/>
+      <c r="A76" s="339"/>
       <c r="B76" s="26"/>
       <c r="C76" s="245"/>
       <c r="D76" s="245"/>
@@ -6842,7 +6842,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="338"/>
+      <c r="A77" s="339"/>
       <c r="B77" s="26"/>
       <c r="C77" s="245"/>
       <c r="D77" s="245"/>
@@ -6853,7 +6853,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="338"/>
+      <c r="A78" s="339"/>
       <c r="B78" s="26"/>
       <c r="C78" s="245"/>
       <c r="D78" s="245"/>
@@ -6864,7 +6864,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="338"/>
+      <c r="A79" s="339"/>
       <c r="B79" s="26"/>
       <c r="C79" s="245"/>
       <c r="D79" s="245"/>
@@ -6876,7 +6876,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="338"/>
+      <c r="A80" s="339"/>
       <c r="B80" s="26"/>
       <c r="C80" s="245"/>
       <c r="D80" s="245"/>
@@ -6888,7 +6888,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="338"/>
+      <c r="A81" s="339"/>
       <c r="B81" s="26"/>
       <c r="C81" s="245"/>
       <c r="D81" s="245"/>
@@ -6900,7 +6900,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="338"/>
+      <c r="A82" s="339"/>
       <c r="B82" s="26"/>
       <c r="C82" s="245"/>
       <c r="D82" s="245"/>
@@ -6912,7 +6912,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="338"/>
+      <c r="A83" s="339"/>
       <c r="B83" s="31"/>
       <c r="C83" s="246">
         <f>SUM(C5:C72)</f>
@@ -6968,67 +6968,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="345" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="340"/>
-      <c r="C1" s="340"/>
-      <c r="D1" s="340"/>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340"/>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340"/>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
-      <c r="O1" s="340"/>
-      <c r="P1" s="340"/>
-      <c r="Q1" s="340"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
+      <c r="N1" s="345"/>
+      <c r="O1" s="345"/>
+      <c r="P1" s="345"/>
+      <c r="Q1" s="345"/>
     </row>
     <row r="2" spans="1:24" s="63" customFormat="1" ht="18">
-      <c r="A2" s="341" t="s">
+      <c r="A2" s="346" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
-      <c r="K2" s="341"/>
-      <c r="L2" s="341"/>
-      <c r="M2" s="341"/>
-      <c r="N2" s="341"/>
-      <c r="O2" s="341"/>
-      <c r="P2" s="341"/>
-      <c r="Q2" s="341"/>
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="346"/>
     </row>
     <row r="3" spans="1:24" s="64" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="342" t="s">
+      <c r="A3" s="347" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="343"/>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
-      <c r="F3" s="343"/>
-      <c r="G3" s="343"/>
-      <c r="H3" s="343"/>
-      <c r="I3" s="343"/>
-      <c r="J3" s="343"/>
-      <c r="K3" s="343"/>
-      <c r="L3" s="343"/>
-      <c r="M3" s="343"/>
-      <c r="N3" s="343"/>
-      <c r="O3" s="343"/>
-      <c r="P3" s="343"/>
-      <c r="Q3" s="344"/>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
+      <c r="F3" s="348"/>
+      <c r="G3" s="348"/>
+      <c r="H3" s="348"/>
+      <c r="I3" s="348"/>
+      <c r="J3" s="348"/>
+      <c r="K3" s="348"/>
+      <c r="L3" s="348"/>
+      <c r="M3" s="348"/>
+      <c r="N3" s="348"/>
+      <c r="O3" s="348"/>
+      <c r="P3" s="348"/>
+      <c r="Q3" s="349"/>
       <c r="S3" s="48"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -7037,52 +7037,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="65" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="345" t="s">
+      <c r="A4" s="350" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="347" t="s">
+      <c r="B4" s="352" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="349" t="s">
+      <c r="C4" s="341" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="349" t="s">
+      <c r="D4" s="341" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="349" t="s">
+      <c r="E4" s="341" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="349" t="s">
+      <c r="F4" s="341" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="349" t="s">
+      <c r="G4" s="341" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="349" t="s">
+      <c r="H4" s="341" t="s">
         <v>171</v>
       </c>
-      <c r="I4" s="349" t="s">
+      <c r="I4" s="341" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="349" t="s">
+      <c r="J4" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="349" t="s">
+      <c r="K4" s="341" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="349" t="s">
+      <c r="L4" s="341" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="349" t="s">
+      <c r="M4" s="341" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="349" t="s">
+      <c r="N4" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="353" t="s">
+      <c r="O4" s="343" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="351" t="s">
+      <c r="P4" s="354" t="s">
         <v>169</v>
       </c>
       <c r="Q4" s="122" t="s">
@@ -7095,22 +7095,22 @@
       <c r="W4" s="67"/>
     </row>
     <row r="5" spans="1:24" s="65" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="346"/>
-      <c r="B5" s="348"/>
-      <c r="C5" s="350"/>
-      <c r="D5" s="350"/>
-      <c r="E5" s="350"/>
-      <c r="F5" s="350"/>
-      <c r="G5" s="350"/>
-      <c r="H5" s="350"/>
-      <c r="I5" s="350"/>
-      <c r="J5" s="350"/>
-      <c r="K5" s="350"/>
-      <c r="L5" s="350"/>
-      <c r="M5" s="350"/>
-      <c r="N5" s="350"/>
-      <c r="O5" s="354"/>
-      <c r="P5" s="352"/>
+      <c r="A5" s="351"/>
+      <c r="B5" s="353"/>
+      <c r="C5" s="342"/>
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="342"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
+      <c r="M5" s="342"/>
+      <c r="N5" s="342"/>
+      <c r="O5" s="344"/>
+      <c r="P5" s="355"/>
       <c r="Q5" s="123" t="s">
         <v>40</v>
       </c>
@@ -7754,7 +7754,7 @@
     </row>
     <row r="24" spans="1:23" s="13" customFormat="1">
       <c r="A24" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="80">
         <v>1000</v>
@@ -10144,6 +10144,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -10160,9 +10163,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10203,15 +10203,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="361" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
+      <c r="G1" s="361"/>
       <c r="H1" s="58"/>
       <c r="I1" s="139"/>
       <c r="J1" s="139"/>
@@ -10304,15 +10304,15 @@
       <c r="CS1" s="134"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="361" t="s">
+      <c r="A2" s="362" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="361"/>
-      <c r="C2" s="361"/>
-      <c r="D2" s="361"/>
-      <c r="E2" s="361"/>
-      <c r="F2" s="361"/>
-      <c r="G2" s="361"/>
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
       <c r="H2" s="58"/>
       <c r="I2" s="139"/>
       <c r="J2" s="139"/>
@@ -10405,15 +10405,15 @@
       <c r="CS2" s="134"/>
     </row>
     <row r="3" spans="1:97">
-      <c r="A3" s="362" t="s">
+      <c r="A3" s="363" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="362"/>
-      <c r="C3" s="362"/>
-      <c r="D3" s="362"/>
-      <c r="E3" s="362"/>
-      <c r="F3" s="362"/>
-      <c r="G3" s="362"/>
+      <c r="B3" s="363"/>
+      <c r="C3" s="363"/>
+      <c r="D3" s="363"/>
+      <c r="E3" s="363"/>
+      <c r="F3" s="363"/>
+      <c r="G3" s="363"/>
       <c r="H3" s="58"/>
       <c r="I3" s="139"/>
       <c r="J3" s="139"/>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="23" spans="1:97">
       <c r="A23" s="178" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B23" s="47">
         <v>319960</v>
@@ -13843,12 +13843,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="129"/>
-      <c r="B35" s="357" t="s">
+      <c r="B35" s="358" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="357"/>
-      <c r="D35" s="357"/>
-      <c r="E35" s="357"/>
+      <c r="C35" s="358"/>
+      <c r="D35" s="358"/>
+      <c r="E35" s="358"/>
       <c r="F35" s="130"/>
       <c r="G35" s="135"/>
       <c r="H35" s="135"/>
@@ -14383,10 +14383,10 @@
       <c r="A40" s="180" t="s">
         <v>178</v>
       </c>
-      <c r="B40" s="363" t="s">
+      <c r="B40" s="364" t="s">
         <v>203</v>
       </c>
-      <c r="C40" s="364"/>
+      <c r="C40" s="365"/>
       <c r="D40" s="204">
         <v>83230</v>
       </c>
@@ -14705,10 +14705,10 @@
       <c r="D43" s="204"/>
       <c r="E43" s="172"/>
       <c r="F43" s="130"/>
-      <c r="G43" s="358"/>
-      <c r="H43" s="358"/>
-      <c r="I43" s="358"/>
-      <c r="J43" s="358"/>
+      <c r="G43" s="359"/>
+      <c r="H43" s="359"/>
+      <c r="I43" s="359"/>
+      <c r="J43" s="359"/>
       <c r="K43" s="58"/>
       <c r="L43" s="139"/>
       <c r="M43" s="58"/>
@@ -15973,7 +15973,7 @@
         <v>202300</v>
       </c>
       <c r="E54" s="175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F54" s="128"/>
       <c r="G54" s="134"/>
@@ -17155,7 +17155,7 @@
         <v>152520</v>
       </c>
       <c r="E64" s="175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F64" s="128"/>
       <c r="G64" s="134"/>
@@ -17701,13 +17701,13 @@
         <v>75</v>
       </c>
       <c r="C69" s="116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69" s="206">
         <v>105840</v>
       </c>
       <c r="E69" s="174" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F69" s="58"/>
       <c r="G69" s="134"/>
@@ -17807,7 +17807,7 @@
     </row>
     <row r="70" spans="1:97">
       <c r="A70" s="222" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B70" s="52" t="s">
         <v>98</v>
@@ -17817,7 +17817,7 @@
         <v>5000</v>
       </c>
       <c r="E70" s="175" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F70" s="128"/>
       <c r="G70" s="134"/>
@@ -22816,11 +22816,11 @@
       <c r="CS118" s="134"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="355" t="s">
+      <c r="A119" s="356" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="356"/>
-      <c r="C119" s="359"/>
+      <c r="B119" s="357"/>
+      <c r="C119" s="360"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
         <v>3514000</v>
@@ -23025,11 +23025,11 @@
       <c r="CS120" s="134"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="355" t="s">
+      <c r="A121" s="356" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="356"/>
-      <c r="C121" s="356"/>
+      <c r="B121" s="357"/>
+      <c r="C121" s="357"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
         <v>3514000</v>
@@ -34264,8 +34264,8 @@
   </sheetPr>
   <dimension ref="A1:Q221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34282,35 +34282,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="26.25">
-      <c r="A1" s="365" t="s">
+      <c r="A1" s="366" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="366"/>
-      <c r="D1" s="366"/>
-      <c r="E1" s="367"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="368"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:17" ht="20.25">
-      <c r="A2" s="374" t="s">
+      <c r="A2" s="375" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="375"/>
-      <c r="C2" s="375"/>
-      <c r="D2" s="375"/>
-      <c r="E2" s="376"/>
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="377"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:17" ht="23.25">
-      <c r="A3" s="368" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="370"/>
+      <c r="A3" s="369" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="370"/>
+      <c r="C3" s="370"/>
+      <c r="D3" s="370"/>
+      <c r="E3" s="371"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -34325,13 +34325,13 @@
       <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="377" t="s">
+      <c r="A4" s="378" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="378"/>
-      <c r="C4" s="378"/>
-      <c r="D4" s="378"/>
-      <c r="E4" s="379"/>
+      <c r="B4" s="379"/>
+      <c r="C4" s="379"/>
+      <c r="D4" s="379"/>
+      <c r="E4" s="380"/>
       <c r="F4" s="5"/>
       <c r="G4" s="42"/>
       <c r="H4" s="7"/>
@@ -34684,13 +34684,13 @@
       <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="1:17" ht="23.25" thickBot="1">
-      <c r="A18" s="371" t="s">
+      <c r="A18" s="372" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="372"/>
-      <c r="C18" s="372"/>
-      <c r="D18" s="372"/>
-      <c r="E18" s="373"/>
+      <c r="B18" s="373"/>
+      <c r="C18" s="373"/>
+      <c r="D18" s="373"/>
+      <c r="E18" s="374"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="7"/>
@@ -34959,14 +34959,14 @@
     </row>
     <row r="29" spans="1:17" ht="21.75">
       <c r="A29" s="312" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B29" s="313">
         <v>5000</v>
       </c>
       <c r="C29" s="314"/>
       <c r="D29" s="315" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E29" s="316">
         <v>14150</v>
@@ -34991,7 +34991,7 @@
       </c>
       <c r="C30" s="314"/>
       <c r="D30" s="322" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E30" s="323">
         <v>83230</v>
@@ -35034,7 +35034,7 @@
     </row>
     <row r="32" spans="1:17" ht="22.5" thickBot="1">
       <c r="A32" s="317" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B32" s="318">
         <v>105840</v>
@@ -37884,18 +37884,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="380" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="381"/>
-      <c r="C1" s="382"/>
+      <c r="A1" s="381" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="382"/>
+      <c r="C1" s="383"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="262" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="262" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C2" s="262" t="s">
         <v>40</v>
@@ -37903,7 +37903,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="309" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" s="309" t="s">
         <v>88</v>
@@ -38018,11 +38018,11 @@
       <c r="C24" s="309"/>
     </row>
     <row r="25" spans="1:3" ht="15.75">
-      <c r="A25" s="383" t="s">
+      <c r="A25" s="384" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="384"/>
-      <c r="C25" s="385">
+      <c r="B25" s="385"/>
+      <c r="C25" s="335">
         <f>SUM(C3:C24)</f>
         <v>1920</v>
       </c>
